--- a/crawl/data_collecting/output2.xlsx
+++ b/crawl/data_collecting/output2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="600" windowWidth="27735" windowHeight="11865"/>
+    <workbookView xWindow="510" yWindow="600" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="멜론 TOP100" sheetId="1" r:id="rId1"/>
@@ -1736,18 +1736,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="17.375" customWidth="1"/>
-    <col min="5" max="5" width="24.125" customWidth="1"/>
+    <col min="1" max="1" width="8.75" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="19.08203125" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="24.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1764,7 +1766,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1781,7 +1783,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1798,7 +1800,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1815,7 +1817,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1832,7 +1834,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1849,7 +1851,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -1866,7 +1868,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -1883,7 +1885,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -1900,7 +1902,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -1917,7 +1919,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -1934,7 +1936,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -1951,7 +1953,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>59</v>
       </c>
@@ -1968,7 +1970,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -1985,7 +1987,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>67</v>
       </c>
@@ -2002,7 +2004,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>72</v>
       </c>
@@ -2019,7 +2021,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -2036,7 +2038,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>82</v>
       </c>
@@ -2053,7 +2055,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>87</v>
       </c>
@@ -2070,7 +2072,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>92</v>
       </c>
@@ -2087,7 +2089,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>97</v>
       </c>
@@ -2104,7 +2106,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>102</v>
       </c>
@@ -2121,7 +2123,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>107</v>
       </c>
@@ -2138,7 +2140,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>112</v>
       </c>
@@ -2155,7 +2157,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>117</v>
       </c>
@@ -2172,7 +2174,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>122</v>
       </c>
@@ -2189,7 +2191,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>127</v>
       </c>
@@ -2206,7 +2208,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>132</v>
       </c>
@@ -2223,7 +2225,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>136</v>
       </c>
@@ -2240,7 +2242,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>141</v>
       </c>
@@ -2257,7 +2259,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>145</v>
       </c>
@@ -2274,7 +2276,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>150</v>
       </c>
@@ -2291,7 +2293,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>154</v>
       </c>
@@ -2308,7 +2310,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>159</v>
       </c>
@@ -2325,7 +2327,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>163</v>
       </c>
@@ -2342,7 +2344,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>167</v>
       </c>
@@ -2359,7 +2361,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>171</v>
       </c>
@@ -2376,7 +2378,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>176</v>
       </c>
@@ -2393,7 +2395,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>180</v>
       </c>
@@ -2410,7 +2412,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>184</v>
       </c>
@@ -2427,7 +2429,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>188</v>
       </c>
@@ -2444,7 +2446,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>192</v>
       </c>
@@ -2461,7 +2463,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>196</v>
       </c>
@@ -2478,7 +2480,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>200</v>
       </c>
@@ -2495,7 +2497,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>205</v>
       </c>
@@ -2512,7 +2514,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>209</v>
       </c>
@@ -2529,7 +2531,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>213</v>
       </c>
@@ -2546,7 +2548,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>217</v>
       </c>
@@ -2563,7 +2565,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>221</v>
       </c>
@@ -2580,7 +2582,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>225</v>
       </c>
@@ -2597,7 +2599,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>229</v>
       </c>
@@ -2614,7 +2616,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>233</v>
       </c>
@@ -2631,7 +2633,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>238</v>
       </c>
@@ -2648,7 +2650,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>242</v>
       </c>
@@ -2665,7 +2667,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>247</v>
       </c>
@@ -2682,7 +2684,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>251</v>
       </c>
@@ -2699,7 +2701,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>256</v>
       </c>
@@ -2716,7 +2718,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>260</v>
       </c>
@@ -2733,7 +2735,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>265</v>
       </c>
@@ -2750,7 +2752,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>269</v>
       </c>
@@ -2767,7 +2769,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>274</v>
       </c>
@@ -2784,7 +2786,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>279</v>
       </c>
@@ -2801,7 +2803,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>283</v>
       </c>
@@ -2818,7 +2820,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>288</v>
       </c>
@@ -2835,7 +2837,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>292</v>
       </c>
@@ -2852,7 +2854,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>297</v>
       </c>
@@ -2869,7 +2871,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>301</v>
       </c>
@@ -2886,7 +2888,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>306</v>
       </c>
@@ -2903,7 +2905,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>310</v>
       </c>
@@ -2920,7 +2922,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>314</v>
       </c>
@@ -2937,7 +2939,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>318</v>
       </c>
@@ -2954,7 +2956,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>322</v>
       </c>
@@ -2971,7 +2973,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>327</v>
       </c>
@@ -2988,7 +2990,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>331</v>
       </c>
@@ -3005,7 +3007,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>336</v>
       </c>
@@ -3022,7 +3024,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>340</v>
       </c>
@@ -3039,7 +3041,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>345</v>
       </c>
@@ -3056,7 +3058,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>349</v>
       </c>
@@ -3073,7 +3075,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>353</v>
       </c>
@@ -3090,7 +3092,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>357</v>
       </c>
@@ -3107,7 +3109,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>362</v>
       </c>
@@ -3124,7 +3126,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>366</v>
       </c>
@@ -3141,7 +3143,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>371</v>
       </c>
@@ -3158,7 +3160,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>375</v>
       </c>
@@ -3175,7 +3177,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>380</v>
       </c>
@@ -3192,7 +3194,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>385</v>
       </c>
@@ -3209,7 +3211,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>389</v>
       </c>
@@ -3226,7 +3228,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>394</v>
       </c>
@@ -3243,7 +3245,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>399</v>
       </c>
@@ -3260,7 +3262,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>403</v>
       </c>
@@ -3277,7 +3279,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>408</v>
       </c>
@@ -3294,7 +3296,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>412</v>
       </c>
@@ -3311,7 +3313,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>416</v>
       </c>
@@ -3328,7 +3330,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>421</v>
       </c>
@@ -3345,7 +3347,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>426</v>
       </c>
@@ -3362,7 +3364,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>431</v>
       </c>
@@ -3379,7 +3381,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>435</v>
       </c>
@@ -3396,7 +3398,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>439</v>
       </c>
@@ -3413,7 +3415,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>443</v>
       </c>
@@ -3430,7 +3432,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>447</v>
       </c>
@@ -3447,7 +3449,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>451</v>
       </c>
@@ -3464,7 +3466,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>456</v>
       </c>
